--- a/MySurvivorsGame/Assets/StreamingAssets/TestsData/Test.xlsx
+++ b/MySurvivorsGame/Assets/StreamingAssets/TestsData/Test.xlsx
@@ -6,13 +6,12 @@
     <sheet state="visible" name="Test1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Test2" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>美味しい</t>
   </si>
@@ -42,15 +41,19 @@
   </si>
   <si>
     <t>ProblemC</t>
+  </si>
+  <si>
+    <t>987</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -70,35 +73,29 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -296,10 +293,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -329,25 +327,26 @@
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>987.0</v>
+        <v>987</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,17 +386,17 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1">
-        <v>987.0</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>